--- a/5/qwdqwd.xlsx
+++ b/5/qwdqwd.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF712CBF-68F0-4C68-88BC-306E38441AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="336" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +282,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -300,7 +299,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1032,7 +1031,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-49E5-BA41-7192D414F9BB}"/>
             </c:ext>
@@ -1189,7 +1188,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8DC9-49E5-BA41-7192D414F9BB}"/>
             </c:ext>
@@ -1203,11 +1202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61396032"/>
-        <c:axId val="61396608"/>
+        <c:axId val="255301008"/>
+        <c:axId val="257078048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61396032"/>
+        <c:axId val="255301008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1219,13 +1218,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61396608"/>
+        <c:crossAx val="257078048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61396608"/>
+        <c:axId val="257078048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="61396032"/>
+        <c:crossAx val="255301008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1255,7 +1254,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1883,7 +1882,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C557-4921-85C0-24BDD8B3FDB3}"/>
             </c:ext>
@@ -1897,11 +1896,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61398336"/>
-        <c:axId val="208338944"/>
+        <c:axId val="257081968"/>
+        <c:axId val="257084320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61398336"/>
+        <c:axId val="257081968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,12 +1911,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208338944"/>
+        <c:crossAx val="257084320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208338944"/>
+        <c:axId val="257084320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +1927,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="61398336"/>
+        <c:crossAx val="257081968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,7 +1945,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1960,6 +1959,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1992,22 +1992,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.6300000000000007E-2</c:v>
+                  <c:v>0.52090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1105</c:v>
+                  <c:v>1.4059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1943</c:v>
+                  <c:v>1.48539</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66369999999999996</c:v>
+                  <c:v>1.56389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7545-47F7-8760-0762583776B1}"/>
             </c:ext>
@@ -2022,11 +2022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="96480256"/>
-        <c:axId val="210795264"/>
+        <c:axId val="257080008"/>
+        <c:axId val="257080400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96480256"/>
+        <c:axId val="257080008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210795264"/>
+        <c:crossAx val="257080400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2043,7 +2043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210795264"/>
+        <c:axId val="257080400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,13 +2054,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96480256"/>
+        <c:crossAx val="257080008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2076,7 +2077,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2090,6 +2091,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2115,29 +2117,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$Q$57:$Q$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$T$57:$T$60</c:f>
+              <c:f>Лист1!$T$57:$T$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7000000000000002E-3</c:v>
+                  <c:v>0.52090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8E-3</c:v>
+                  <c:v>0.47639900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8500000000000001E-3</c:v>
+                  <c:v>0.48539900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8999999999999998E-3</c:v>
+                  <c:v>0.50139900000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53029899999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-093B-4591-911E-7EC3D10B5092}"/>
             </c:ext>
@@ -2152,20 +2181,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="96478720"/>
-        <c:axId val="213283904"/>
+        <c:axId val="257083536"/>
+        <c:axId val="257078832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96478720"/>
+        <c:axId val="257083536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213283904"/>
+        <c:crossAx val="257078832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2173,7 +2203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213283904"/>
+        <c:axId val="257078832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,13 +2214,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96478720"/>
+        <c:crossAx val="257083536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2206,7 +2237,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2220,6 +2251,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2267,7 +2299,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5640-488E-B9E1-16134125A972}"/>
             </c:ext>
@@ -2282,11 +2314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="96477696"/>
-        <c:axId val="82155712"/>
+        <c:axId val="257081576"/>
+        <c:axId val="257082752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96477696"/>
+        <c:axId val="257081576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82155712"/>
+        <c:crossAx val="257082752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82155712"/>
+        <c:axId val="257082752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,13 +2346,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96477696"/>
+        <c:crossAx val="257081576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2355,7 +2388,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2424,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,22 +2445,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,22 +2481,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>379095</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>115252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,22 +2517,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,23 +2691,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2710,23 +2726,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2902,21 +2901,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView tabSelected="1" topLeftCell="O55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X62" sqref="X62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>3.6400000000000001E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -2958,7 +2957,7 @@
         <v>15.657963684609381</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.1</v>
       </c>
@@ -3051,7 +3050,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.3</v>
       </c>
@@ -3087,7 +3086,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.5</v>
       </c>
@@ -3123,7 +3122,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0.7</v>
       </c>
@@ -3159,7 +3158,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0.9</v>
       </c>
@@ -3195,7 +3194,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -3231,7 +3230,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -3267,7 +3266,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1.5</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>-6.3237466728656884</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1.7</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>-5.508519882993717</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1.9</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>-4.8585197263647997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2.1</v>
       </c>
@@ -3438,7 +3437,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>-3.8822360651234509</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2.5</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>-3.5043851341664309</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2.7</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>-3.1784285319887666</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2.9</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>-2.8937446230727608</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3.1</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>-2.6424586928888614</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3.3</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>-2.4186102265654421</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>3.5</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>-2.2176056807895841</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3.7</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>-2.035848725922798</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3.9</v>
       </c>
@@ -3821,7 +3820,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -3863,7 +3862,7 @@
         <v>-1.7192172968382722</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4.3</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>-1.5801824953987915</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>4.5</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>-1.4518483480060873</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4.7</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>-1.33294592344344</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>-1.222415024372818</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>-1.1193630199888929</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5.3</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>-1.0230330010998478</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5.5</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>-0.93277888549470922</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5.7</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>-0.84804576728072067</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>5.9</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>-0.7683542665620785</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>6.1</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>-0.69328796198551235</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>6.3</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>-0.62248322164330749</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>6.5</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>-0.5556209162743655</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>6.7</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>-0.49241962189749888</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>6.9</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>-0.43263001006652851</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>7.1</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>-0.37603019190734299</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>7.3</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>-0.3224218333078081</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>7.5</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>-0.27162689755186714</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>7.7</v>
       </c>
@@ -4619,7 +4618,7 @@
         <v>-0.22348490151201766</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>7.9</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>-0.17785059454291316</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>8.1</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>-0.13459198713103493</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>-9.3588670384238418E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>8.5</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>-5.4730378504378209E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>8.6999999999999993</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>-1.7915755158956295E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>8.9</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>1.6948708332222867E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>9.1</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>4.9949589462378569E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>9.3000000000000007</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>8.1167327590543112E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>9.5</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>0.11067691184272016</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>9.6999999999999993</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>0.13854847912797447</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>9.9</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>0.1648478350844908</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>10.1</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>10.3</v>
       </c>
@@ -5179,14 +5178,17 @@
         <f t="shared" si="18"/>
         <v>0.2129741501206075</v>
       </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>7.6300000000000007E-2</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="T57">
-        <v>3.7000000000000002E-3</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="U57">
         <v>1.5688</v>
@@ -5196,7 +5198,7 @@
         <v>36.257011728709841</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>10.5</v>
       </c>
@@ -5237,14 +5239,17 @@
         <f t="shared" si="18"/>
         <v>0.23491487825808996</v>
       </c>
+      <c r="Q58">
+        <v>0.1028</v>
+      </c>
       <c r="R58">
         <v>1E-4</v>
       </c>
       <c r="S58">
-        <v>0.1105</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="T58">
-        <v>3.8E-3</v>
+        <v>0.47639900000000002</v>
       </c>
       <c r="U58">
         <v>1.6165</v>
@@ -5254,7 +5259,7 @@
         <v>38.137952366223324</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>10.7</v>
       </c>
@@ -5295,14 +5300,17 @@
         <f t="shared" si="18"/>
         <v>0.25551158670035612</v>
       </c>
+      <c r="Q59">
+        <v>0.12</v>
+      </c>
       <c r="R59">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="S59">
-        <v>0.1943</v>
+        <v>1.48539</v>
       </c>
       <c r="T59">
-        <v>3.8500000000000001E-3</v>
+        <v>0.48539900000000002</v>
       </c>
       <c r="U59">
         <v>1.671</v>
@@ -5312,7 +5320,7 @@
         <v>40.155595451825256</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>10.9</v>
       </c>
@@ -5353,14 +5361,17 @@
         <f t="shared" si="18"/>
         <v>0.27481421166167419</v>
       </c>
+      <c r="Q60">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="R60">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="S60">
-        <v>0.66369999999999996</v>
+        <v>1.56389</v>
       </c>
       <c r="T60">
-        <v>3.8999999999999998E-3</v>
+        <v>0.50139900000000004</v>
       </c>
       <c r="U60">
         <v>1.7267999999999999</v>
@@ -5370,7 +5381,7 @@
         <v>42.089413944869122</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>11.1</v>
       </c>
@@ -5411,8 +5422,17 @@
         <f t="shared" si="18"/>
         <v>0.29287036794718879</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0.18</v>
+      </c>
+      <c r="S61">
+        <v>2.8803000000000001</v>
+      </c>
+      <c r="T61">
+        <v>0.53029899999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>11.3</v>
       </c>
@@ -5454,7 +5474,7 @@
         <v>0.30972555670403201</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>11.5</v>
       </c>
@@ -5496,7 +5516,7 @@
         <v>0.32542334859188982</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>11.7</v>
       </c>
@@ -5538,7 +5558,7 @@
         <v>0.34000554546443346</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>11.9</v>
       </c>
@@ -5580,7 +5600,7 @@
         <v>0.35351232323869303</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>12.1</v>
       </c>
@@ -5622,7 +5642,7 @@
         <v>0.36598235827586956</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>12.3</v>
       </c>
@@ -5664,7 +5684,7 @@
         <v>0.37745293929450596</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>12.5</v>
       </c>
@@ -5706,7 +5726,7 @@
         <v>0.38796006657721166</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>12.7</v>
       </c>
@@ -5748,7 +5768,7 @@
         <v>0.3975385400085934</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>12.9</v>
       </c>
@@ -5790,7 +5810,7 @@
         <v>0.40622203728916689</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>13.1</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>0.41404318350314201</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>13.3</v>
       </c>
@@ -5874,7 +5894,7 @@
         <v>0.42103361307326725</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>13.5</v>
       </c>
@@ -5916,7 +5936,7 @@
         <v>0.42722402501014578</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>13.7</v>
       </c>
@@ -5958,7 +5978,7 @@
         <v>0.4326442322538876</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>13.9</v>
       </c>
@@ -6000,7 +6020,7 @@
         <v>0.43732320581033651</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>14.1</v>
       </c>
@@ -6042,7 +6062,7 @@
         <v>0.44128911430050144</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>14.3</v>
       </c>
@@ -6084,7 +6104,7 @@
         <v>0.44456935946857068</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>14.5</v>
       </c>
@@ -6126,7 +6146,7 @@
         <v>0.44719060812959704</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>14.7</v>
       </c>
@@ -6168,7 +6188,7 @@
         <v>0.44917882098146733</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>14.9</v>
       </c>
@@ -6210,7 +6230,7 @@
         <v>0.45055927865602896</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>15.1</v>
       </c>
@@ -6252,7 +6272,7 @@
         <v>0.45135660534043909</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>15.3</v>
       </c>
@@ -6294,7 +6314,7 @@
         <v>0.45159479026112981</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>15.5</v>
       </c>
@@ -6336,7 +6356,7 @@
         <v>0.45129720728864159</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>15.7</v>
       </c>
@@ -6378,7 +6398,7 @@
         <v>0.4504866328913758</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>15.9</v>
       </c>
@@ -6420,7 +6440,7 @@
         <v>0.44918526263960884</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>16.100000000000001</v>
       </c>
@@ -6462,7 +6482,7 @@
         <v>0.44741472643744934</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>16.3</v>
       </c>
@@ -6504,7 +6524,7 @@
         <v>0.44519610263946713</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>16.5</v>
       </c>
@@ -6546,7 +6566,7 @@
         <v>0.44254993119014074</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>16.7</v>
       </c>
@@ -6588,7 +6608,7 @@
         <v>0.43949622590780568</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>16.899999999999999</v>
       </c>
@@ -6630,7 +6650,7 @@
         <v>0.43605448602016555</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>17.100000000000001</v>
       </c>
@@ -6672,7 +6692,7 @@
         <v>0.43224370704548359</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>17.3</v>
       </c>
@@ -6714,7 +6734,7 @@
         <v>0.42808239110206669</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>17.5</v>
       </c>
@@ -6756,7 +6776,7 @@
         <v>0.42358855671847034</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>17.7</v>
       </c>
@@ -6798,7 +6818,7 @@
         <v>0.41877974820780883</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>17.899999999999999</v>
       </c>
@@ -6840,7 +6860,7 @@
         <v>0.41367304466154897</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>18.100000000000001</v>
       </c>
@@ -6882,7 +6902,7 @@
         <v>0.40828506861106956</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>18.3</v>
       </c>
@@ -6924,7 +6944,7 @@
         <v>0.40263199439898445</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>18.5</v>
       </c>
@@ -6966,7 +6986,7 @@
         <v>0.39672955629667489</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>18.7</v>
       </c>
@@ -7008,7 +7028,7 @@
         <v>0.39059305639956232</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>18.899999999999999</v>
       </c>
@@ -7050,7 +7070,7 @@
         <v>0.38423737232732008</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>19.100000000000001</v>
       </c>
@@ -7092,7 +7112,7 @@
         <v>0.37767696475239732</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>19.3</v>
       </c>
@@ -7134,7 +7154,7 @@
         <v>0.37092588477686539</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>19.5</v>
       </c>
@@ -7179,7 +7199,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>19.7</v>
       </c>
@@ -7235,7 +7255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>19.899999999999999</v>
       </c>
@@ -7289,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -7337,7 +7357,7 @@
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>20.3</v>
       </c>
@@ -7394,7 +7414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>20.5</v>
       </c>
@@ -7454,7 +7474,7 @@
         <v>-27.570009632770734</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>20.7</v>
       </c>
@@ -7514,7 +7534,7 @@
         <v>-27.264085976110437</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>20.9</v>
       </c>
@@ -7574,7 +7594,7 @@
         <v>-26.652605541886487</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>21.1</v>
       </c>
@@ -7634,7 +7654,7 @@
         <v>-25.736300988995936</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>21.3</v>
       </c>
@@ -7694,7 +7714,7 @@
         <v>-24.516268563661697</v>
       </c>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B113" s="16"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -7724,7 +7744,7 @@
         <v>-22.993964826147931</v>
       </c>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B114" s="16"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -7754,7 +7774,7 @@
         <v>-21.171202314663105</v>
       </c>
     </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B115" s="16"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -7784,7 +7804,7 @@
         <v>-19.050144170629437</v>
       </c>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B116" s="16"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -7814,7 +7834,7 @@
         <v>-16.633297754904788</v>
       </c>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B117" s="16"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -7844,7 +7864,7 @@
         <v>-13.923507289933241</v>
       </c>
     </row>
-    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B118" s="16"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -7874,7 +7894,7 @@
         <v>-10.923945567834153</v>
       </c>
     </row>
-    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B119" s="16"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -7904,7 +7924,7 @@
         <v>-7.6381047690879313</v>
       </c>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B120" s="16"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -7934,7 +7954,7 @@
         <v>-4.069786440911912</v>
       </c>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B121" s="16"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -7964,7 +7984,7 @@
         <v>-0.22309068810022836</v>
       </c>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B122" s="16"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -7994,7 +8014,7 @@
         <v>3.8975953672236301</v>
       </c>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B123" s="16"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -8024,7 +8044,7 @@
         <v>8.2876097976916299</v>
       </c>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B124" s="16"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -8054,7 +8074,7 @@
         <v>12.942028692733174</v>
       </c>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B125" s="16"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -8084,7 +8104,7 @@
         <v>1502.3924377537828</v>
       </c>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B126" s="16"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -8114,7 +8134,7 @@
         <v>1502.3924377537828</v>
       </c>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B127" s="16"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -8129,7 +8149,7 @@
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B128" s="16"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -8144,7 +8164,7 @@
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="16"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -8159,7 +8179,7 @@
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="16"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -8174,7 +8194,7 @@
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="16"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -8189,7 +8209,7 @@
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="16"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -8204,7 +8224,7 @@
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="16"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -8219,7 +8239,7 @@
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="16"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -8234,7 +8254,7 @@
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="16"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -8249,7 +8269,7 @@
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="16"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -8264,7 +8284,7 @@
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="16"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -8279,7 +8299,7 @@
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="16"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -8294,7 +8314,7 @@
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="16"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -8309,7 +8329,7 @@
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="16"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -8324,7 +8344,7 @@
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="16"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -8339,7 +8359,7 @@
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="16"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -8354,7 +8374,7 @@
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="16"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -8369,7 +8389,7 @@
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="16"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -8384,7 +8404,7 @@
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="16"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -8399,7 +8419,7 @@
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="16"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -8414,7 +8434,7 @@
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="16"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -8429,7 +8449,7 @@
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="16"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -8444,7 +8464,7 @@
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="16"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -8459,7 +8479,7 @@
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="16"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -8474,7 +8494,7 @@
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="16"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -8489,7 +8509,7 @@
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="16"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -8504,7 +8524,7 @@
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="16"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -8519,7 +8539,7 @@
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="16"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -8534,7 +8554,7 @@
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="16"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -8549,7 +8569,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="16"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -8564,7 +8584,7 @@
       <c r="M156" s="9"/>
       <c r="N156" s="9"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="16"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -8579,7 +8599,7 @@
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="16"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -8594,7 +8614,7 @@
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="16"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -8609,7 +8629,7 @@
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="16"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -8624,7 +8644,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="16"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -8639,7 +8659,7 @@
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="16"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -8654,7 +8674,7 @@
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="16"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -8669,7 +8689,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="16"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -8684,7 +8704,7 @@
       <c r="M164" s="9"/>
       <c r="N164" s="9"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="16"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -8699,7 +8719,7 @@
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="16"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -8714,7 +8734,7 @@
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="16"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -8729,7 +8749,7 @@
       <c r="M167" s="9"/>
       <c r="N167" s="9"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="16"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -8744,7 +8764,7 @@
       <c r="M168" s="9"/>
       <c r="N168" s="9"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="16"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -8759,7 +8779,7 @@
       <c r="M169" s="9"/>
       <c r="N169" s="9"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="16"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -8774,7 +8794,7 @@
       <c r="M170" s="9"/>
       <c r="N170" s="9"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="16"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -8789,7 +8809,7 @@
       <c r="M171" s="9"/>
       <c r="N171" s="9"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="16"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -8804,7 +8824,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="16"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -8819,7 +8839,7 @@
       <c r="M173" s="9"/>
       <c r="N173" s="9"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="16"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -8834,7 +8854,7 @@
       <c r="M174" s="9"/>
       <c r="N174" s="9"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="16"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -8849,7 +8869,7 @@
       <c r="M175" s="9"/>
       <c r="N175" s="9"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="16"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -8864,7 +8884,7 @@
       <c r="M176" s="9"/>
       <c r="N176" s="9"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="16"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -8879,7 +8899,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="16"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -8894,7 +8914,7 @@
       <c r="M178" s="9"/>
       <c r="N178" s="9"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="16"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -8909,7 +8929,7 @@
       <c r="M179" s="9"/>
       <c r="N179" s="9"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="16"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -8924,7 +8944,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="16"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -8939,7 +8959,7 @@
       <c r="M181" s="9"/>
       <c r="N181" s="9"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="16"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -8954,7 +8974,7 @@
       <c r="M182" s="9"/>
       <c r="N182" s="9"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="16"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -8969,7 +8989,7 @@
       <c r="M183" s="9"/>
       <c r="N183" s="9"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="16"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
@@ -8984,7 +9004,7 @@
       <c r="M184" s="9"/>
       <c r="N184" s="9"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="16"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -8999,7 +9019,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="9"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="16"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -9014,7 +9034,7 @@
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="16"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -9029,7 +9049,7 @@
       <c r="M187" s="9"/>
       <c r="N187" s="9"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="16"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -9044,7 +9064,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="9"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="16"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -9059,7 +9079,7 @@
       <c r="M189" s="9"/>
       <c r="N189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="16"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -9074,7 +9094,7 @@
       <c r="M190" s="9"/>
       <c r="N190" s="9"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="16"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -9089,7 +9109,7 @@
       <c r="M191" s="9"/>
       <c r="N191" s="9"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="16"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -9104,7 +9124,7 @@
       <c r="M192" s="9"/>
       <c r="N192" s="9"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="16"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -9119,7 +9139,7 @@
       <c r="M193" s="9"/>
       <c r="N193" s="9"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="16"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -9134,7 +9154,7 @@
       <c r="M194" s="9"/>
       <c r="N194" s="9"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="16"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -9149,7 +9169,7 @@
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="16"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -9164,7 +9184,7 @@
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="16"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -9179,7 +9199,7 @@
       <c r="M197" s="9"/>
       <c r="N197" s="9"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="16"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -9194,7 +9214,7 @@
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="16"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -9209,7 +9229,7 @@
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="16"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
@@ -9224,7 +9244,7 @@
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="16"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
@@ -9239,7 +9259,7 @@
       <c r="M201" s="9"/>
       <c r="N201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="16"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
@@ -9254,7 +9274,7 @@
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="16"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -9269,7 +9289,7 @@
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="16"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -9284,7 +9304,7 @@
       <c r="M204" s="9"/>
       <c r="N204" s="9"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="16"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -9299,7 +9319,7 @@
       <c r="M205" s="9"/>
       <c r="N205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="16"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -9314,7 +9334,7 @@
       <c r="M206" s="9"/>
       <c r="N206" s="9"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="16"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -9329,7 +9349,7 @@
       <c r="M207" s="9"/>
       <c r="N207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="16"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -9344,7 +9364,7 @@
       <c r="M208" s="9"/>
       <c r="N208" s="9"/>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="16"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -9359,7 +9379,7 @@
       <c r="M209" s="9"/>
       <c r="N209" s="9"/>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="16"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -9374,7 +9394,7 @@
       <c r="M210" s="9"/>
       <c r="N210" s="9"/>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="16"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -9389,7 +9409,7 @@
       <c r="M211" s="9"/>
       <c r="N211" s="9"/>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="16"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -9404,7 +9424,7 @@
       <c r="M212" s="9"/>
       <c r="N212" s="9"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="16"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -9419,7 +9439,7 @@
       <c r="M213" s="9"/>
       <c r="N213" s="9"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="16"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -9434,7 +9454,7 @@
       <c r="M214" s="9"/>
       <c r="N214" s="9"/>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="16"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -9449,7 +9469,7 @@
       <c r="M215" s="9"/>
       <c r="N215" s="9"/>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="16"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -9464,7 +9484,7 @@
       <c r="M216" s="9"/>
       <c r="N216" s="9"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="16"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -9479,7 +9499,7 @@
       <c r="M217" s="9"/>
       <c r="N217" s="9"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="16"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -9494,7 +9514,7 @@
       <c r="M218" s="9"/>
       <c r="N218" s="9"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="16"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -9509,7 +9529,7 @@
       <c r="M219" s="9"/>
       <c r="N219" s="9"/>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="16"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -9524,7 +9544,7 @@
       <c r="M220" s="9"/>
       <c r="N220" s="9"/>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="16"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -9539,7 +9559,7 @@
       <c r="M221" s="9"/>
       <c r="N221" s="9"/>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="16"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
@@ -9554,7 +9574,7 @@
       <c r="M222" s="9"/>
       <c r="N222" s="9"/>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="16"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -9569,7 +9589,7 @@
       <c r="M223" s="9"/>
       <c r="N223" s="9"/>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="16"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -9584,7 +9604,7 @@
       <c r="M224" s="9"/>
       <c r="N224" s="9"/>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="16"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -9599,7 +9619,7 @@
       <c r="M225" s="9"/>
       <c r="N225" s="9"/>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="16"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -9614,7 +9634,7 @@
       <c r="M226" s="9"/>
       <c r="N226" s="9"/>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="16"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -9629,7 +9649,7 @@
       <c r="M227" s="9"/>
       <c r="N227" s="9"/>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="16"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -9644,7 +9664,7 @@
       <c r="M228" s="9"/>
       <c r="N228" s="9"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="16"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -9659,7 +9679,7 @@
       <c r="M229" s="9"/>
       <c r="N229" s="9"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="16"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -9674,7 +9694,7 @@
       <c r="M230" s="9"/>
       <c r="N230" s="9"/>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B231" s="16"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -9689,7 +9709,7 @@
       <c r="M231" s="9"/>
       <c r="N231" s="9"/>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="16"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -9704,7 +9724,7 @@
       <c r="M232" s="9"/>
       <c r="N232" s="9"/>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="16"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -9719,7 +9739,7 @@
       <c r="M233" s="9"/>
       <c r="N233" s="9"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="16"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -9734,7 +9754,7 @@
       <c r="M234" s="9"/>
       <c r="N234" s="9"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="16"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
@@ -9749,7 +9769,7 @@
       <c r="M235" s="9"/>
       <c r="N235" s="9"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="16"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
@@ -9764,7 +9784,7 @@
       <c r="M236" s="9"/>
       <c r="N236" s="9"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B237" s="16"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
@@ -9779,7 +9799,7 @@
       <c r="M237" s="9"/>
       <c r="N237" s="9"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="16"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
@@ -9794,7 +9814,7 @@
       <c r="M238" s="9"/>
       <c r="N238" s="9"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="16"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -9809,7 +9829,7 @@
       <c r="M239" s="9"/>
       <c r="N239" s="9"/>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="16"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -9824,7 +9844,7 @@
       <c r="M240" s="9"/>
       <c r="N240" s="9"/>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B241" s="16"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -9839,7 +9859,7 @@
       <c r="M241" s="9"/>
       <c r="N241" s="9"/>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B242" s="16"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -9854,7 +9874,7 @@
       <c r="M242" s="9"/>
       <c r="N242" s="9"/>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B243" s="16"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -9869,7 +9889,7 @@
       <c r="M243" s="9"/>
       <c r="N243" s="9"/>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" s="16"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -9884,7 +9904,7 @@
       <c r="M244" s="9"/>
       <c r="N244" s="9"/>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B245" s="16"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -9899,7 +9919,7 @@
       <c r="M245" s="9"/>
       <c r="N245" s="9"/>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B246" s="16"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -9914,7 +9934,7 @@
       <c r="M246" s="9"/>
       <c r="N246" s="9"/>
     </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B247" s="16"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -9929,7 +9949,7 @@
       <c r="M247" s="9"/>
       <c r="N247" s="9"/>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B248" s="16"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -9944,7 +9964,7 @@
       <c r="M248" s="9"/>
       <c r="N248" s="9"/>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B249" s="16"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -9959,7 +9979,7 @@
       <c r="M249" s="9"/>
       <c r="N249" s="9"/>
     </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B250" s="16"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -9974,7 +9994,7 @@
       <c r="M250" s="9"/>
       <c r="N250" s="9"/>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B251" s="16"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -9989,7 +10009,7 @@
       <c r="M251" s="9"/>
       <c r="N251" s="9"/>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B252" s="16"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -10004,7 +10024,7 @@
       <c r="M252" s="9"/>
       <c r="N252" s="9"/>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B253" s="16"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -10019,7 +10039,7 @@
       <c r="M253" s="9"/>
       <c r="N253" s="9"/>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B254" s="16"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -10034,7 +10054,7 @@
       <c r="M254" s="9"/>
       <c r="N254" s="9"/>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B255" s="16"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -10049,7 +10069,7 @@
       <c r="M255" s="9"/>
       <c r="N255" s="9"/>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B256" s="16"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
@@ -10064,7 +10084,7 @@
       <c r="M256" s="9"/>
       <c r="N256" s="9"/>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B257" s="16"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
@@ -10079,7 +10099,7 @@
       <c r="M257" s="9"/>
       <c r="N257" s="9"/>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B258" s="16"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -10094,7 +10114,7 @@
       <c r="M258" s="9"/>
       <c r="N258" s="9"/>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B259" s="16"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -10109,7 +10129,7 @@
       <c r="M259" s="9"/>
       <c r="N259" s="9"/>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B260" s="16"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
@@ -10124,7 +10144,7 @@
       <c r="M260" s="9"/>
       <c r="N260" s="9"/>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B261" s="16"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -10139,7 +10159,7 @@
       <c r="M261" s="9"/>
       <c r="N261" s="9"/>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B262" s="16"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -10154,7 +10174,7 @@
       <c r="M262" s="9"/>
       <c r="N262" s="9"/>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B263" s="16"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
@@ -10169,7 +10189,7 @@
       <c r="M263" s="9"/>
       <c r="N263" s="9"/>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B264" s="16"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
@@ -10184,7 +10204,7 @@
       <c r="M264" s="9"/>
       <c r="N264" s="9"/>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B265" s="16"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -10199,7 +10219,7 @@
       <c r="M265" s="9"/>
       <c r="N265" s="9"/>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B266" s="16"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
@@ -10214,7 +10234,7 @@
       <c r="M266" s="9"/>
       <c r="N266" s="9"/>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B267" s="16"/>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
@@ -10229,7 +10249,7 @@
       <c r="M267" s="9"/>
       <c r="N267" s="9"/>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B268" s="16"/>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
@@ -10244,7 +10264,7 @@
       <c r="M268" s="9"/>
       <c r="N268" s="9"/>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B269" s="16"/>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
@@ -10259,7 +10279,7 @@
       <c r="M269" s="9"/>
       <c r="N269" s="9"/>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B270" s="16"/>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
@@ -10274,7 +10294,7 @@
       <c r="M270" s="9"/>
       <c r="N270" s="9"/>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B271" s="16"/>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
@@ -10289,7 +10309,7 @@
       <c r="M271" s="9"/>
       <c r="N271" s="9"/>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B272" s="16"/>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
@@ -10304,7 +10324,7 @@
       <c r="M272" s="9"/>
       <c r="N272" s="9"/>
     </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B273" s="16"/>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
@@ -10319,7 +10339,7 @@
       <c r="M273" s="9"/>
       <c r="N273" s="9"/>
     </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B274" s="16"/>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
@@ -10334,7 +10354,7 @@
       <c r="M274" s="9"/>
       <c r="N274" s="9"/>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B275" s="16"/>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
@@ -10349,7 +10369,7 @@
       <c r="M275" s="9"/>
       <c r="N275" s="9"/>
     </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B276" s="16"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
@@ -10364,7 +10384,7 @@
       <c r="M276" s="9"/>
       <c r="N276" s="9"/>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B277" s="16"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
@@ -10379,7 +10399,7 @@
       <c r="M277" s="9"/>
       <c r="N277" s="9"/>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B278" s="16"/>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
@@ -10394,7 +10414,7 @@
       <c r="M278" s="9"/>
       <c r="N278" s="9"/>
     </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B279" s="16"/>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
@@ -10409,7 +10429,7 @@
       <c r="M279" s="9"/>
       <c r="N279" s="9"/>
     </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B280" s="16"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
@@ -10424,7 +10444,7 @@
       <c r="M280" s="9"/>
       <c r="N280" s="9"/>
     </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B281" s="16"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -10439,7 +10459,7 @@
       <c r="M281" s="9"/>
       <c r="N281" s="9"/>
     </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B282" s="16"/>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
@@ -10454,7 +10474,7 @@
       <c r="M282" s="9"/>
       <c r="N282" s="9"/>
     </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B283" s="16"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
@@ -10469,7 +10489,7 @@
       <c r="M283" s="9"/>
       <c r="N283" s="9"/>
     </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B284" s="16"/>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
@@ -10484,7 +10504,7 @@
       <c r="M284" s="9"/>
       <c r="N284" s="9"/>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B285" s="16"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
@@ -10499,7 +10519,7 @@
       <c r="M285" s="9"/>
       <c r="N285" s="9"/>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B286" s="16"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
@@ -10514,7 +10534,7 @@
       <c r="M286" s="9"/>
       <c r="N286" s="9"/>
     </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B287" s="16"/>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
@@ -10529,7 +10549,7 @@
       <c r="M287" s="9"/>
       <c r="N287" s="9"/>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B288" s="16"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
@@ -10544,7 +10564,7 @@
       <c r="M288" s="9"/>
       <c r="N288" s="9"/>
     </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B289" s="16"/>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
@@ -10559,7 +10579,7 @@
       <c r="M289" s="9"/>
       <c r="N289" s="9"/>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B290" s="16"/>
       <c r="C290" s="9"/>
       <c r="D290" s="9"/>
@@ -10574,7 +10594,7 @@
       <c r="M290" s="9"/>
       <c r="N290" s="9"/>
     </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B291" s="16"/>
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
@@ -10589,7 +10609,7 @@
       <c r="M291" s="9"/>
       <c r="N291" s="9"/>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B292" s="16"/>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
@@ -10604,7 +10624,7 @@
       <c r="M292" s="9"/>
       <c r="N292" s="9"/>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B293" s="16"/>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -10619,7 +10639,7 @@
       <c r="M293" s="9"/>
       <c r="N293" s="9"/>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B294" s="16"/>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -10634,7 +10654,7 @@
       <c r="M294" s="9"/>
       <c r="N294" s="9"/>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B295" s="16"/>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -10649,7 +10669,7 @@
       <c r="M295" s="9"/>
       <c r="N295" s="9"/>
     </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B296" s="16"/>
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
@@ -10664,7 +10684,7 @@
       <c r="M296" s="9"/>
       <c r="N296" s="9"/>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B297" s="16"/>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
@@ -10679,7 +10699,7 @@
       <c r="M297" s="9"/>
       <c r="N297" s="9"/>
     </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B298" s="16"/>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -10694,7 +10714,7 @@
       <c r="M298" s="9"/>
       <c r="N298" s="9"/>
     </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B299" s="16"/>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -10709,7 +10729,7 @@
       <c r="M299" s="9"/>
       <c r="N299" s="9"/>
     </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B300" s="16"/>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -10724,7 +10744,7 @@
       <c r="M300" s="9"/>
       <c r="N300" s="9"/>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B301" s="16"/>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
@@ -10739,7 +10759,7 @@
       <c r="M301" s="9"/>
       <c r="N301" s="9"/>
     </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B302" s="16"/>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
@@ -10754,7 +10774,7 @@
       <c r="M302" s="9"/>
       <c r="N302" s="9"/>
     </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B303" s="16"/>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -10769,7 +10789,7 @@
       <c r="M303" s="9"/>
       <c r="N303" s="9"/>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B304" s="16"/>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -10784,7 +10804,7 @@
       <c r="M304" s="9"/>
       <c r="N304" s="9"/>
     </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B305" s="16"/>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
@@ -10799,7 +10819,7 @@
       <c r="M305" s="9"/>
       <c r="N305" s="9"/>
     </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B306" s="16"/>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
@@ -10814,7 +10834,7 @@
       <c r="M306" s="9"/>
       <c r="N306" s="9"/>
     </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B307" s="16"/>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
@@ -10829,7 +10849,7 @@
       <c r="M307" s="9"/>
       <c r="N307" s="9"/>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B308" s="16"/>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
@@ -10844,7 +10864,7 @@
       <c r="M308" s="9"/>
       <c r="N308" s="9"/>
     </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B309" s="16"/>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
@@ -10859,7 +10879,7 @@
       <c r="M309" s="9"/>
       <c r="N309" s="9"/>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B310" s="16"/>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
@@ -10874,7 +10894,7 @@
       <c r="M310" s="9"/>
       <c r="N310" s="9"/>
     </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B311" s="16"/>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
@@ -10889,7 +10909,7 @@
       <c r="M311" s="9"/>
       <c r="N311" s="9"/>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B312" s="16"/>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
@@ -10904,7 +10924,7 @@
       <c r="M312" s="9"/>
       <c r="N312" s="9"/>
     </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B313" s="16"/>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
@@ -10919,7 +10939,7 @@
       <c r="M313" s="9"/>
       <c r="N313" s="9"/>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B314" s="16"/>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
@@ -10934,7 +10954,7 @@
       <c r="M314" s="9"/>
       <c r="N314" s="9"/>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B315" s="16"/>
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
@@ -10949,7 +10969,7 @@
       <c r="M315" s="9"/>
       <c r="N315" s="9"/>
     </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B316" s="16"/>
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
@@ -10964,7 +10984,7 @@
       <c r="M316" s="9"/>
       <c r="N316" s="9"/>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B317" s="16"/>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
@@ -10979,7 +10999,7 @@
       <c r="M317" s="9"/>
       <c r="N317" s="9"/>
     </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B318" s="16"/>
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
@@ -10994,7 +11014,7 @@
       <c r="M318" s="9"/>
       <c r="N318" s="9"/>
     </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B319" s="16"/>
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
@@ -11009,7 +11029,7 @@
       <c r="M319" s="9"/>
       <c r="N319" s="9"/>
     </row>
-    <row r="320" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B320" s="16"/>
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
@@ -11024,7 +11044,7 @@
       <c r="M320" s="9"/>
       <c r="N320" s="9"/>
     </row>
-    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B321" s="16"/>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
@@ -11039,7 +11059,7 @@
       <c r="M321" s="9"/>
       <c r="N321" s="9"/>
     </row>
-    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B322" s="16"/>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
@@ -11054,7 +11074,7 @@
       <c r="M322" s="9"/>
       <c r="N322" s="9"/>
     </row>
-    <row r="323" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B323" s="16"/>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
@@ -11069,7 +11089,7 @@
       <c r="M323" s="9"/>
       <c r="N323" s="9"/>
     </row>
-    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B324" s="16"/>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
@@ -11084,7 +11104,7 @@
       <c r="M324" s="9"/>
       <c r="N324" s="9"/>
     </row>
-    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B325" s="16"/>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
@@ -11099,7 +11119,7 @@
       <c r="M325" s="9"/>
       <c r="N325" s="9"/>
     </row>
-    <row r="326" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B326" s="16"/>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
@@ -11114,7 +11134,7 @@
       <c r="M326" s="9"/>
       <c r="N326" s="9"/>
     </row>
-    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B327" s="16"/>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
@@ -11129,7 +11149,7 @@
       <c r="M327" s="9"/>
       <c r="N327" s="9"/>
     </row>
-    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B328" s="16"/>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
@@ -11144,7 +11164,7 @@
       <c r="M328" s="9"/>
       <c r="N328" s="9"/>
     </row>
-    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B329" s="16"/>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
@@ -11159,7 +11179,7 @@
       <c r="M329" s="9"/>
       <c r="N329" s="9"/>
     </row>
-    <row r="330" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B330" s="16"/>
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
@@ -11174,7 +11194,7 @@
       <c r="M330" s="9"/>
       <c r="N330" s="9"/>
     </row>
-    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B331" s="16"/>
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
@@ -11189,7 +11209,7 @@
       <c r="M331" s="9"/>
       <c r="N331" s="9"/>
     </row>
-    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B332" s="16"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
@@ -11204,7 +11224,7 @@
       <c r="M332" s="9"/>
       <c r="N332" s="9"/>
     </row>
-    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B333" s="16"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
@@ -11219,7 +11239,7 @@
       <c r="M333" s="9"/>
       <c r="N333" s="9"/>
     </row>
-    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B334" s="16"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
@@ -11234,7 +11254,7 @@
       <c r="M334" s="9"/>
       <c r="N334" s="9"/>
     </row>
-    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B335" s="16"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
@@ -11249,7 +11269,7 @@
       <c r="M335" s="9"/>
       <c r="N335" s="9"/>
     </row>
-    <row r="336" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B336" s="16"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
@@ -11264,7 +11284,7 @@
       <c r="M336" s="9"/>
       <c r="N336" s="9"/>
     </row>
-    <row r="337" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B337" s="16"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -11279,7 +11299,7 @@
       <c r="M337" s="9"/>
       <c r="N337" s="9"/>
     </row>
-    <row r="338" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B338" s="16"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
@@ -11294,7 +11314,7 @@
       <c r="M338" s="9"/>
       <c r="N338" s="9"/>
     </row>
-    <row r="339" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B339" s="16"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
@@ -11309,7 +11329,7 @@
       <c r="M339" s="9"/>
       <c r="N339" s="9"/>
     </row>
-    <row r="340" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B340" s="16"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
@@ -11324,7 +11344,7 @@
       <c r="M340" s="9"/>
       <c r="N340" s="9"/>
     </row>
-    <row r="341" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B341" s="16"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -11339,7 +11359,7 @@
       <c r="M341" s="9"/>
       <c r="N341" s="9"/>
     </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B342" s="16"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -11354,7 +11374,7 @@
       <c r="M342" s="9"/>
       <c r="N342" s="9"/>
     </row>
-    <row r="343" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B343" s="16"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
@@ -11369,7 +11389,7 @@
       <c r="M343" s="9"/>
       <c r="N343" s="9"/>
     </row>
-    <row r="344" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B344" s="16"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
@@ -11384,7 +11404,7 @@
       <c r="M344" s="9"/>
       <c r="N344" s="9"/>
     </row>
-    <row r="345" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B345" s="16"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
@@ -11399,7 +11419,7 @@
       <c r="M345" s="9"/>
       <c r="N345" s="9"/>
     </row>
-    <row r="346" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B346" s="16"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -11414,7 +11434,7 @@
       <c r="M346" s="9"/>
       <c r="N346" s="9"/>
     </row>
-    <row r="347" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B347" s="16"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -11429,7 +11449,7 @@
       <c r="M347" s="9"/>
       <c r="N347" s="9"/>
     </row>
-    <row r="348" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B348" s="16"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
@@ -11444,7 +11464,7 @@
       <c r="M348" s="9"/>
       <c r="N348" s="9"/>
     </row>
-    <row r="349" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B349" s="16"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
@@ -11459,7 +11479,7 @@
       <c r="M349" s="9"/>
       <c r="N349" s="9"/>
     </row>
-    <row r="350" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B350" s="16"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
@@ -11474,7 +11494,7 @@
       <c r="M350" s="9"/>
       <c r="N350" s="9"/>
     </row>
-    <row r="351" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B351" s="16"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
@@ -11489,7 +11509,7 @@
       <c r="M351" s="9"/>
       <c r="N351" s="9"/>
     </row>
-    <row r="352" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B352" s="16"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
@@ -11504,7 +11524,7 @@
       <c r="M352" s="9"/>
       <c r="N352" s="9"/>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B353" s="16"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
@@ -11519,7 +11539,7 @@
       <c r="M353" s="9"/>
       <c r="N353" s="9"/>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B354" s="16"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
@@ -11534,7 +11554,7 @@
       <c r="M354" s="9"/>
       <c r="N354" s="9"/>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B355" s="16"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
@@ -11549,7 +11569,7 @@
       <c r="M355" s="9"/>
       <c r="N355" s="9"/>
     </row>
-    <row r="356" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B356" s="16"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
@@ -11564,7 +11584,7 @@
       <c r="M356" s="9"/>
       <c r="N356" s="9"/>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B357" s="16"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
@@ -11579,7 +11599,7 @@
       <c r="M357" s="9"/>
       <c r="N357" s="9"/>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B358" s="16"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
@@ -11594,7 +11614,7 @@
       <c r="M358" s="9"/>
       <c r="N358" s="9"/>
     </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B359" s="16"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
@@ -11609,7 +11629,7 @@
       <c r="M359" s="9"/>
       <c r="N359" s="9"/>
     </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B360" s="16"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
@@ -11624,7 +11644,7 @@
       <c r="M360" s="9"/>
       <c r="N360" s="9"/>
     </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B361" s="16"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
@@ -11639,7 +11659,7 @@
       <c r="M361" s="9"/>
       <c r="N361" s="9"/>
     </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B362" s="16"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
@@ -11654,7 +11674,7 @@
       <c r="M362" s="9"/>
       <c r="N362" s="9"/>
     </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B363" s="16"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
@@ -11669,7 +11689,7 @@
       <c r="M363" s="9"/>
       <c r="N363" s="9"/>
     </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B364" s="16"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
@@ -11684,7 +11704,7 @@
       <c r="M364" s="9"/>
       <c r="N364" s="9"/>
     </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B365" s="16"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
@@ -11699,7 +11719,7 @@
       <c r="M365" s="9"/>
       <c r="N365" s="9"/>
     </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B366" s="16"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
@@ -11714,7 +11734,7 @@
       <c r="M366" s="9"/>
       <c r="N366" s="9"/>
     </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B367" s="16"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
@@ -11729,7 +11749,7 @@
       <c r="M367" s="9"/>
       <c r="N367" s="9"/>
     </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B368" s="16"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
@@ -11744,7 +11764,7 @@
       <c r="M368" s="9"/>
       <c r="N368" s="9"/>
     </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B369" s="16"/>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
@@ -11759,7 +11779,7 @@
       <c r="M369" s="9"/>
       <c r="N369" s="9"/>
     </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B370" s="16"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
@@ -11774,7 +11794,7 @@
       <c r="M370" s="9"/>
       <c r="N370" s="9"/>
     </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B371" s="16"/>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
@@ -11789,7 +11809,7 @@
       <c r="M371" s="9"/>
       <c r="N371" s="9"/>
     </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B372" s="16"/>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
@@ -11804,7 +11824,7 @@
       <c r="M372" s="9"/>
       <c r="N372" s="9"/>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B373" s="16"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
@@ -11819,7 +11839,7 @@
       <c r="M373" s="9"/>
       <c r="N373" s="9"/>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B374" s="16"/>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
@@ -11834,7 +11854,7 @@
       <c r="M374" s="9"/>
       <c r="N374" s="9"/>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B375" s="16"/>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
@@ -11849,7 +11869,7 @@
       <c r="M375" s="9"/>
       <c r="N375" s="9"/>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B376" s="16"/>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
@@ -11864,7 +11884,7 @@
       <c r="M376" s="9"/>
       <c r="N376" s="9"/>
     </row>
-    <row r="377" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B377" s="16"/>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
@@ -11879,7 +11899,7 @@
       <c r="M377" s="9"/>
       <c r="N377" s="9"/>
     </row>
-    <row r="378" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B378" s="16"/>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
@@ -11894,7 +11914,7 @@
       <c r="M378" s="9"/>
       <c r="N378" s="9"/>
     </row>
-    <row r="379" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B379" s="16"/>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
@@ -11909,7 +11929,7 @@
       <c r="M379" s="9"/>
       <c r="N379" s="9"/>
     </row>
-    <row r="380" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B380" s="16"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
@@ -11924,7 +11944,7 @@
       <c r="M380" s="9"/>
       <c r="N380" s="9"/>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B381" s="16"/>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
@@ -11939,7 +11959,7 @@
       <c r="M381" s="9"/>
       <c r="N381" s="9"/>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B382" s="16"/>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
@@ -11954,7 +11974,7 @@
       <c r="M382" s="9"/>
       <c r="N382" s="9"/>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B383" s="16"/>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
@@ -11969,7 +11989,7 @@
       <c r="M383" s="9"/>
       <c r="N383" s="9"/>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B384" s="16"/>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -11984,7 +12004,7 @@
       <c r="M384" s="9"/>
       <c r="N384" s="9"/>
     </row>
-    <row r="385" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B385" s="16"/>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
@@ -11999,7 +12019,7 @@
       <c r="M385" s="9"/>
       <c r="N385" s="9"/>
     </row>
-    <row r="386" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B386" s="16"/>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
@@ -12014,7 +12034,7 @@
       <c r="M386" s="9"/>
       <c r="N386" s="9"/>
     </row>
-    <row r="387" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B387" s="16"/>
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
@@ -12029,7 +12049,7 @@
       <c r="M387" s="9"/>
       <c r="N387" s="9"/>
     </row>
-    <row r="388" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B388" s="16"/>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
@@ -12044,7 +12064,7 @@
       <c r="M388" s="9"/>
       <c r="N388" s="9"/>
     </row>
-    <row r="389" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B389" s="16"/>
       <c r="C389" s="9"/>
       <c r="D389" s="9"/>
@@ -12059,7 +12079,7 @@
       <c r="M389" s="9"/>
       <c r="N389" s="9"/>
     </row>
-    <row r="390" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B390" s="16"/>
       <c r="C390" s="9"/>
       <c r="D390" s="9"/>
@@ -12074,7 +12094,7 @@
       <c r="M390" s="9"/>
       <c r="N390" s="9"/>
     </row>
-    <row r="391" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B391" s="16"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
@@ -12089,7 +12109,7 @@
       <c r="M391" s="9"/>
       <c r="N391" s="9"/>
     </row>
-    <row r="392" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B392" s="16"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
@@ -12104,7 +12124,7 @@
       <c r="M392" s="9"/>
       <c r="N392" s="9"/>
     </row>
-    <row r="393" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B393" s="16"/>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
@@ -12119,7 +12139,7 @@
       <c r="M393" s="9"/>
       <c r="N393" s="9"/>
     </row>
-    <row r="394" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B394" s="16"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
@@ -12134,7 +12154,7 @@
       <c r="M394" s="9"/>
       <c r="N394" s="9"/>
     </row>
-    <row r="395" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B395" s="16"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9"/>
@@ -12149,7 +12169,7 @@
       <c r="M395" s="9"/>
       <c r="N395" s="9"/>
     </row>
-    <row r="396" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B396" s="16"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
@@ -12164,7 +12184,7 @@
       <c r="M396" s="9"/>
       <c r="N396" s="9"/>
     </row>
-    <row r="397" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B397" s="16"/>
       <c r="C397" s="9"/>
       <c r="D397" s="9"/>
@@ -12179,7 +12199,7 @@
       <c r="M397" s="9"/>
       <c r="N397" s="9"/>
     </row>
-    <row r="398" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B398" s="16"/>
       <c r="C398" s="9"/>
       <c r="D398" s="9"/>
@@ -12194,7 +12214,7 @@
       <c r="M398" s="9"/>
       <c r="N398" s="9"/>
     </row>
-    <row r="399" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B399" s="16"/>
       <c r="C399" s="9"/>
       <c r="D399" s="9"/>
@@ -12209,7 +12229,7 @@
       <c r="M399" s="9"/>
       <c r="N399" s="9"/>
     </row>
-    <row r="400" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B400" s="16"/>
       <c r="C400" s="9"/>
       <c r="D400" s="9"/>
@@ -12224,7 +12244,7 @@
       <c r="M400" s="9"/>
       <c r="N400" s="9"/>
     </row>
-    <row r="401" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B401" s="16"/>
       <c r="C401" s="9"/>
       <c r="D401" s="9"/>
@@ -12239,7 +12259,7 @@
       <c r="M401" s="9"/>
       <c r="N401" s="9"/>
     </row>
-    <row r="402" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B402" s="16"/>
       <c r="C402" s="9"/>
       <c r="D402" s="9"/>
@@ -12254,7 +12274,7 @@
       <c r="M402" s="9"/>
       <c r="N402" s="9"/>
     </row>
-    <row r="403" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B403" s="16"/>
       <c r="C403" s="9"/>
       <c r="D403" s="9"/>
@@ -12269,7 +12289,7 @@
       <c r="M403" s="9"/>
       <c r="N403" s="9"/>
     </row>
-    <row r="404" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B404" s="16"/>
       <c r="C404" s="9"/>
       <c r="D404" s="9"/>
@@ -12284,7 +12304,7 @@
       <c r="M404" s="9"/>
       <c r="N404" s="9"/>
     </row>
-    <row r="405" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B405" s="16"/>
       <c r="C405" s="9"/>
       <c r="D405" s="9"/>
@@ -12299,7 +12319,7 @@
       <c r="M405" s="9"/>
       <c r="N405" s="9"/>
     </row>
-    <row r="406" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B406" s="16"/>
       <c r="C406" s="9"/>
       <c r="D406" s="9"/>
@@ -12314,7 +12334,7 @@
       <c r="M406" s="9"/>
       <c r="N406" s="9"/>
     </row>
-    <row r="407" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B407" s="16"/>
       <c r="C407" s="9"/>
       <c r="D407" s="9"/>
@@ -12329,7 +12349,7 @@
       <c r="M407" s="9"/>
       <c r="N407" s="9"/>
     </row>
-    <row r="408" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B408" s="16"/>
       <c r="C408" s="9"/>
       <c r="D408" s="9"/>
@@ -12344,7 +12364,7 @@
       <c r="M408" s="9"/>
       <c r="N408" s="9"/>
     </row>
-    <row r="409" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B409" s="16"/>
       <c r="C409" s="9"/>
       <c r="D409" s="9"/>
@@ -12359,7 +12379,7 @@
       <c r="M409" s="9"/>
       <c r="N409" s="9"/>
     </row>
-    <row r="410" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B410" s="16"/>
       <c r="C410" s="9"/>
       <c r="D410" s="9"/>
@@ -12374,7 +12394,7 @@
       <c r="M410" s="9"/>
       <c r="N410" s="9"/>
     </row>
-    <row r="411" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B411" s="16"/>
       <c r="C411" s="9"/>
       <c r="D411" s="9"/>
@@ -12389,7 +12409,7 @@
       <c r="M411" s="9"/>
       <c r="N411" s="9"/>
     </row>
-    <row r="412" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B412" s="16"/>
       <c r="C412" s="9"/>
       <c r="D412" s="9"/>
@@ -12404,7 +12424,7 @@
       <c r="M412" s="9"/>
       <c r="N412" s="9"/>
     </row>
-    <row r="413" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B413" s="16"/>
       <c r="C413" s="9"/>
       <c r="D413" s="9"/>
@@ -12419,7 +12439,7 @@
       <c r="M413" s="9"/>
       <c r="N413" s="9"/>
     </row>
-    <row r="414" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B414" s="16"/>
       <c r="C414" s="9"/>
       <c r="D414" s="9"/>
@@ -12434,7 +12454,7 @@
       <c r="M414" s="9"/>
       <c r="N414" s="9"/>
     </row>
-    <row r="415" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B415" s="16"/>
       <c r="C415" s="9"/>
       <c r="D415" s="9"/>
@@ -12449,7 +12469,7 @@
       <c r="M415" s="9"/>
       <c r="N415" s="9"/>
     </row>
-    <row r="416" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B416" s="16"/>
       <c r="C416" s="9"/>
       <c r="D416" s="9"/>
@@ -12464,7 +12484,7 @@
       <c r="M416" s="9"/>
       <c r="N416" s="9"/>
     </row>
-    <row r="417" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B417" s="16"/>
       <c r="C417" s="9"/>
       <c r="D417" s="9"/>
@@ -12479,7 +12499,7 @@
       <c r="M417" s="9"/>
       <c r="N417" s="9"/>
     </row>
-    <row r="418" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B418" s="16"/>
       <c r="C418" s="9"/>
       <c r="D418" s="9"/>
@@ -12494,7 +12514,7 @@
       <c r="M418" s="9"/>
       <c r="N418" s="9"/>
     </row>
-    <row r="419" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B419" s="16"/>
       <c r="C419" s="9"/>
       <c r="D419" s="9"/>
@@ -12509,7 +12529,7 @@
       <c r="M419" s="9"/>
       <c r="N419" s="9"/>
     </row>
-    <row r="420" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B420" s="16"/>
       <c r="C420" s="9"/>
       <c r="D420" s="9"/>
@@ -12524,7 +12544,7 @@
       <c r="M420" s="9"/>
       <c r="N420" s="9"/>
     </row>
-    <row r="421" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B421" s="16"/>
       <c r="C421" s="9"/>
       <c r="D421" s="9"/>
@@ -12539,7 +12559,7 @@
       <c r="M421" s="9"/>
       <c r="N421" s="9"/>
     </row>
-    <row r="422" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B422" s="16"/>
       <c r="C422" s="9"/>
       <c r="D422" s="9"/>
@@ -12554,7 +12574,7 @@
       <c r="M422" s="9"/>
       <c r="N422" s="9"/>
     </row>
-    <row r="423" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B423" s="16"/>
       <c r="C423" s="9"/>
       <c r="D423" s="9"/>
@@ -12569,7 +12589,7 @@
       <c r="M423" s="9"/>
       <c r="N423" s="9"/>
     </row>
-    <row r="424" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B424" s="16"/>
       <c r="C424" s="9"/>
       <c r="D424" s="9"/>
@@ -12584,7 +12604,7 @@
       <c r="M424" s="9"/>
       <c r="N424" s="9"/>
     </row>
-    <row r="425" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B425" s="16"/>
       <c r="C425" s="9"/>
       <c r="D425" s="9"/>
@@ -12599,7 +12619,7 @@
       <c r="M425" s="9"/>
       <c r="N425" s="9"/>
     </row>
-    <row r="426" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B426" s="16"/>
       <c r="C426" s="9"/>
       <c r="D426" s="9"/>
@@ -12614,7 +12634,7 @@
       <c r="M426" s="9"/>
       <c r="N426" s="9"/>
     </row>
-    <row r="427" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B427" s="16"/>
       <c r="C427" s="9"/>
       <c r="D427" s="9"/>
@@ -12629,7 +12649,7 @@
       <c r="M427" s="9"/>
       <c r="N427" s="9"/>
     </row>
-    <row r="428" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B428" s="16"/>
       <c r="C428" s="9"/>
       <c r="D428" s="9"/>
@@ -12644,7 +12664,7 @@
       <c r="M428" s="9"/>
       <c r="N428" s="9"/>
     </row>
-    <row r="429" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B429" s="16"/>
       <c r="C429" s="9"/>
       <c r="D429" s="9"/>
@@ -12659,7 +12679,7 @@
       <c r="M429" s="9"/>
       <c r="N429" s="9"/>
     </row>
-    <row r="430" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B430" s="16"/>
       <c r="C430" s="9"/>
       <c r="D430" s="9"/>
@@ -12674,7 +12694,7 @@
       <c r="M430" s="9"/>
       <c r="N430" s="9"/>
     </row>
-    <row r="431" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B431" s="16"/>
       <c r="C431" s="9"/>
       <c r="D431" s="9"/>
@@ -12689,7 +12709,7 @@
       <c r="M431" s="9"/>
       <c r="N431" s="9"/>
     </row>
-    <row r="432" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B432" s="16"/>
       <c r="C432" s="9"/>
       <c r="D432" s="9"/>
@@ -12704,7 +12724,7 @@
       <c r="M432" s="9"/>
       <c r="N432" s="9"/>
     </row>
-    <row r="433" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B433" s="16"/>
       <c r="C433" s="9"/>
       <c r="D433" s="9"/>
@@ -12719,7 +12739,7 @@
       <c r="M433" s="9"/>
       <c r="N433" s="9"/>
     </row>
-    <row r="434" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B434" s="16"/>
       <c r="C434" s="9"/>
       <c r="D434" s="9"/>
@@ -12734,7 +12754,7 @@
       <c r="M434" s="9"/>
       <c r="N434" s="9"/>
     </row>
-    <row r="435" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B435" s="16"/>
       <c r="C435" s="9"/>
       <c r="D435" s="9"/>
@@ -12749,7 +12769,7 @@
       <c r="M435" s="9"/>
       <c r="N435" s="9"/>
     </row>
-    <row r="436" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B436" s="16"/>
       <c r="C436" s="9"/>
       <c r="D436" s="9"/>
@@ -12764,7 +12784,7 @@
       <c r="M436" s="9"/>
       <c r="N436" s="9"/>
     </row>
-    <row r="437" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B437" s="16"/>
       <c r="C437" s="9"/>
       <c r="D437" s="9"/>
@@ -12779,7 +12799,7 @@
       <c r="M437" s="9"/>
       <c r="N437" s="9"/>
     </row>
-    <row r="438" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B438" s="16"/>
       <c r="C438" s="9"/>
       <c r="D438" s="9"/>
@@ -12794,7 +12814,7 @@
       <c r="M438" s="9"/>
       <c r="N438" s="9"/>
     </row>
-    <row r="439" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B439" s="16"/>
       <c r="C439" s="9"/>
       <c r="D439" s="9"/>
@@ -12809,7 +12829,7 @@
       <c r="M439" s="9"/>
       <c r="N439" s="9"/>
     </row>
-    <row r="440" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B440" s="16"/>
       <c r="C440" s="9"/>
       <c r="D440" s="9"/>
@@ -12824,7 +12844,7 @@
       <c r="M440" s="9"/>
       <c r="N440" s="9"/>
     </row>
-    <row r="441" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B441" s="16"/>
       <c r="C441" s="9"/>
       <c r="D441" s="9"/>
@@ -12839,7 +12859,7 @@
       <c r="M441" s="9"/>
       <c r="N441" s="9"/>
     </row>
-    <row r="442" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B442" s="16"/>
       <c r="C442" s="9"/>
       <c r="D442" s="9"/>
@@ -12854,7 +12874,7 @@
       <c r="M442" s="9"/>
       <c r="N442" s="9"/>
     </row>
-    <row r="443" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B443" s="16"/>
       <c r="C443" s="9"/>
       <c r="D443" s="9"/>
@@ -12869,7 +12889,7 @@
       <c r="M443" s="9"/>
       <c r="N443" s="9"/>
     </row>
-    <row r="444" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B444" s="16"/>
       <c r="C444" s="9"/>
       <c r="D444" s="9"/>
@@ -12884,7 +12904,7 @@
       <c r="M444" s="9"/>
       <c r="N444" s="9"/>
     </row>
-    <row r="445" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B445" s="16"/>
       <c r="C445" s="9"/>
       <c r="D445" s="9"/>
@@ -12899,7 +12919,7 @@
       <c r="M445" s="9"/>
       <c r="N445" s="9"/>
     </row>
-    <row r="446" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B446" s="16"/>
       <c r="C446" s="9"/>
       <c r="D446" s="9"/>
@@ -12914,7 +12934,7 @@
       <c r="M446" s="9"/>
       <c r="N446" s="9"/>
     </row>
-    <row r="447" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B447" s="16"/>
       <c r="C447" s="9"/>
       <c r="D447" s="9"/>
@@ -12929,7 +12949,7 @@
       <c r="M447" s="9"/>
       <c r="N447" s="9"/>
     </row>
-    <row r="448" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B448" s="16"/>
       <c r="C448" s="9"/>
       <c r="D448" s="9"/>
@@ -12944,7 +12964,7 @@
       <c r="M448" s="9"/>
       <c r="N448" s="9"/>
     </row>
-    <row r="449" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B449" s="16"/>
       <c r="C449" s="9"/>
       <c r="D449" s="9"/>
@@ -12959,7 +12979,7 @@
       <c r="M449" s="9"/>
       <c r="N449" s="9"/>
     </row>
-    <row r="450" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B450" s="16"/>
       <c r="C450" s="9"/>
       <c r="D450" s="9"/>
@@ -12974,7 +12994,7 @@
       <c r="M450" s="9"/>
       <c r="N450" s="9"/>
     </row>
-    <row r="451" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B451" s="16"/>
       <c r="C451" s="9"/>
       <c r="D451" s="9"/>
@@ -12989,7 +13009,7 @@
       <c r="M451" s="9"/>
       <c r="N451" s="9"/>
     </row>
-    <row r="452" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B452" s="16"/>
       <c r="C452" s="9"/>
       <c r="D452" s="9"/>
@@ -13004,7 +13024,7 @@
       <c r="M452" s="9"/>
       <c r="N452" s="9"/>
     </row>
-    <row r="453" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B453" s="16"/>
       <c r="C453" s="9"/>
       <c r="D453" s="9"/>
@@ -13019,7 +13039,7 @@
       <c r="M453" s="9"/>
       <c r="N453" s="9"/>
     </row>
-    <row r="454" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B454" s="16"/>
       <c r="C454" s="9"/>
       <c r="D454" s="9"/>
@@ -13034,7 +13054,7 @@
       <c r="M454" s="9"/>
       <c r="N454" s="9"/>
     </row>
-    <row r="455" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B455" s="16"/>
       <c r="C455" s="9"/>
       <c r="D455" s="9"/>
@@ -13049,7 +13069,7 @@
       <c r="M455" s="9"/>
       <c r="N455" s="9"/>
     </row>
-    <row r="456" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B456" s="16"/>
       <c r="C456" s="9"/>
       <c r="D456" s="9"/>
@@ -13064,7 +13084,7 @@
       <c r="M456" s="9"/>
       <c r="N456" s="9"/>
     </row>
-    <row r="457" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B457" s="16"/>
       <c r="C457" s="9"/>
       <c r="D457" s="9"/>
@@ -13079,7 +13099,7 @@
       <c r="M457" s="9"/>
       <c r="N457" s="9"/>
     </row>
-    <row r="458" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B458" s="16"/>
       <c r="C458" s="9"/>
       <c r="D458" s="9"/>
@@ -13094,7 +13114,7 @@
       <c r="M458" s="9"/>
       <c r="N458" s="9"/>
     </row>
-    <row r="459" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B459" s="16"/>
       <c r="C459" s="9"/>
       <c r="D459" s="9"/>
@@ -13109,7 +13129,7 @@
       <c r="M459" s="9"/>
       <c r="N459" s="9"/>
     </row>
-    <row r="460" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B460" s="16"/>
       <c r="C460" s="9"/>
       <c r="D460" s="9"/>
@@ -13124,7 +13144,7 @@
       <c r="M460" s="9"/>
       <c r="N460" s="9"/>
     </row>
-    <row r="461" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B461" s="16"/>
       <c r="C461" s="9"/>
       <c r="D461" s="9"/>
@@ -13139,7 +13159,7 @@
       <c r="M461" s="9"/>
       <c r="N461" s="9"/>
     </row>
-    <row r="462" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B462" s="16"/>
       <c r="C462" s="9"/>
       <c r="D462" s="9"/>
@@ -13154,7 +13174,7 @@
       <c r="M462" s="9"/>
       <c r="N462" s="9"/>
     </row>
-    <row r="463" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B463" s="16"/>
       <c r="C463" s="9"/>
       <c r="D463" s="9"/>
@@ -13169,7 +13189,7 @@
       <c r="M463" s="9"/>
       <c r="N463" s="9"/>
     </row>
-    <row r="464" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B464" s="16"/>
       <c r="C464" s="9"/>
       <c r="D464" s="9"/>
@@ -13184,7 +13204,7 @@
       <c r="M464" s="9"/>
       <c r="N464" s="9"/>
     </row>
-    <row r="465" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B465" s="16"/>
       <c r="C465" s="9"/>
       <c r="D465" s="9"/>
@@ -13199,7 +13219,7 @@
       <c r="M465" s="9"/>
       <c r="N465" s="9"/>
     </row>
-    <row r="466" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B466" s="16"/>
       <c r="C466" s="9"/>
       <c r="D466" s="9"/>
@@ -13214,7 +13234,7 @@
       <c r="M466" s="9"/>
       <c r="N466" s="9"/>
     </row>
-    <row r="467" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B467" s="16"/>
       <c r="C467" s="9"/>
       <c r="D467" s="9"/>
@@ -13229,7 +13249,7 @@
       <c r="M467" s="9"/>
       <c r="N467" s="9"/>
     </row>
-    <row r="468" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B468" s="16"/>
       <c r="C468" s="9"/>
       <c r="D468" s="9"/>
@@ -13244,7 +13264,7 @@
       <c r="M468" s="9"/>
       <c r="N468" s="9"/>
     </row>
-    <row r="469" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B469" s="16"/>
       <c r="C469" s="9"/>
       <c r="D469" s="9"/>
@@ -13259,7 +13279,7 @@
       <c r="M469" s="9"/>
       <c r="N469" s="9"/>
     </row>
-    <row r="470" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B470" s="16"/>
       <c r="C470" s="9"/>
       <c r="D470" s="9"/>
@@ -13274,7 +13294,7 @@
       <c r="M470" s="9"/>
       <c r="N470" s="9"/>
     </row>
-    <row r="471" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B471" s="16"/>
       <c r="C471" s="9"/>
       <c r="D471" s="9"/>
@@ -13289,7 +13309,7 @@
       <c r="M471" s="9"/>
       <c r="N471" s="9"/>
     </row>
-    <row r="472" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B472" s="16"/>
       <c r="C472" s="9"/>
       <c r="D472" s="9"/>
@@ -13304,7 +13324,7 @@
       <c r="M472" s="9"/>
       <c r="N472" s="9"/>
     </row>
-    <row r="473" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B473" s="16"/>
       <c r="C473" s="9"/>
       <c r="D473" s="9"/>
@@ -13319,7 +13339,7 @@
       <c r="M473" s="9"/>
       <c r="N473" s="9"/>
     </row>
-    <row r="474" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B474" s="16"/>
       <c r="C474" s="9"/>
       <c r="D474" s="9"/>
@@ -13334,7 +13354,7 @@
       <c r="M474" s="9"/>
       <c r="N474" s="9"/>
     </row>
-    <row r="475" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B475" s="16"/>
       <c r="C475" s="9"/>
       <c r="D475" s="9"/>
@@ -13349,7 +13369,7 @@
       <c r="M475" s="9"/>
       <c r="N475" s="9"/>
     </row>
-    <row r="476" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B476" s="16"/>
       <c r="C476" s="9"/>
       <c r="D476" s="9"/>
@@ -13364,7 +13384,7 @@
       <c r="M476" s="9"/>
       <c r="N476" s="9"/>
     </row>
-    <row r="477" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B477" s="16"/>
       <c r="C477" s="9"/>
       <c r="D477" s="9"/>
@@ -13379,7 +13399,7 @@
       <c r="M477" s="9"/>
       <c r="N477" s="9"/>
     </row>
-    <row r="478" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B478" s="16"/>
       <c r="C478" s="9"/>
       <c r="D478" s="9"/>
@@ -13394,7 +13414,7 @@
       <c r="M478" s="9"/>
       <c r="N478" s="9"/>
     </row>
-    <row r="479" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B479" s="16"/>
       <c r="C479" s="9"/>
       <c r="D479" s="9"/>
@@ -13409,7 +13429,7 @@
       <c r="M479" s="9"/>
       <c r="N479" s="9"/>
     </row>
-    <row r="480" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B480" s="16"/>
       <c r="C480" s="9"/>
       <c r="D480" s="9"/>
@@ -13424,7 +13444,7 @@
       <c r="M480" s="9"/>
       <c r="N480" s="9"/>
     </row>
-    <row r="481" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B481" s="16"/>
       <c r="C481" s="9"/>
       <c r="D481" s="9"/>
@@ -13439,7 +13459,7 @@
       <c r="M481" s="9"/>
       <c r="N481" s="9"/>
     </row>
-    <row r="482" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B482" s="16"/>
       <c r="C482" s="9"/>
       <c r="D482" s="9"/>
@@ -13454,7 +13474,7 @@
       <c r="M482" s="9"/>
       <c r="N482" s="9"/>
     </row>
-    <row r="483" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B483" s="16"/>
       <c r="C483" s="9"/>
       <c r="D483" s="9"/>
@@ -13469,7 +13489,7 @@
       <c r="M483" s="9"/>
       <c r="N483" s="9"/>
     </row>
-    <row r="484" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B484" s="16"/>
       <c r="C484" s="9"/>
       <c r="D484" s="9"/>
@@ -13484,7 +13504,7 @@
       <c r="M484" s="9"/>
       <c r="N484" s="9"/>
     </row>
-    <row r="485" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B485" s="16"/>
       <c r="C485" s="9"/>
       <c r="D485" s="9"/>
@@ -13499,7 +13519,7 @@
       <c r="M485" s="9"/>
       <c r="N485" s="9"/>
     </row>
-    <row r="486" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B486" s="16"/>
       <c r="C486" s="9"/>
       <c r="D486" s="9"/>
@@ -13514,7 +13534,7 @@
       <c r="M486" s="9"/>
       <c r="N486" s="9"/>
     </row>
-    <row r="487" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B487" s="16"/>
       <c r="C487" s="9"/>
       <c r="D487" s="9"/>
@@ -13529,7 +13549,7 @@
       <c r="M487" s="9"/>
       <c r="N487" s="9"/>
     </row>
-    <row r="488" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B488" s="16"/>
       <c r="C488" s="9"/>
       <c r="D488" s="9"/>
@@ -13544,7 +13564,7 @@
       <c r="M488" s="9"/>
       <c r="N488" s="9"/>
     </row>
-    <row r="489" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B489" s="16"/>
       <c r="C489" s="9"/>
       <c r="D489" s="9"/>
@@ -13559,7 +13579,7 @@
       <c r="M489" s="9"/>
       <c r="N489" s="9"/>
     </row>
-    <row r="490" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B490" s="16"/>
       <c r="C490" s="9"/>
       <c r="D490" s="9"/>
@@ -13574,7 +13594,7 @@
       <c r="M490" s="9"/>
       <c r="N490" s="9"/>
     </row>
-    <row r="491" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B491" s="16"/>
       <c r="C491" s="9"/>
       <c r="D491" s="9"/>
@@ -13589,7 +13609,7 @@
       <c r="M491" s="9"/>
       <c r="N491" s="9"/>
     </row>
-    <row r="492" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B492" s="16"/>
       <c r="C492" s="9"/>
       <c r="D492" s="9"/>
@@ -13604,7 +13624,7 @@
       <c r="M492" s="9"/>
       <c r="N492" s="9"/>
     </row>
-    <row r="493" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B493" s="16"/>
       <c r="C493" s="9"/>
       <c r="D493" s="9"/>
@@ -13619,7 +13639,7 @@
       <c r="M493" s="9"/>
       <c r="N493" s="9"/>
     </row>
-    <row r="494" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B494" s="16"/>
       <c r="C494" s="9"/>
       <c r="D494" s="9"/>
@@ -13634,7 +13654,7 @@
       <c r="M494" s="9"/>
       <c r="N494" s="9"/>
     </row>
-    <row r="495" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B495" s="16"/>
       <c r="C495" s="9"/>
       <c r="D495" s="9"/>
@@ -13649,7 +13669,7 @@
       <c r="M495" s="9"/>
       <c r="N495" s="9"/>
     </row>
-    <row r="496" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B496" s="16"/>
       <c r="C496" s="9"/>
       <c r="D496" s="9"/>
@@ -13664,7 +13684,7 @@
       <c r="M496" s="9"/>
       <c r="N496" s="9"/>
     </row>
-    <row r="497" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B497" s="16"/>
       <c r="C497" s="9"/>
       <c r="D497" s="9"/>
@@ -13679,7 +13699,7 @@
       <c r="M497" s="9"/>
       <c r="N497" s="9"/>
     </row>
-    <row r="498" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B498" s="16"/>
       <c r="C498" s="9"/>
       <c r="D498" s="9"/>
@@ -13694,7 +13714,7 @@
       <c r="M498" s="9"/>
       <c r="N498" s="9"/>
     </row>
-    <row r="499" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B499" s="16"/>
       <c r="C499" s="9"/>
       <c r="D499" s="9"/>
@@ -13709,7 +13729,7 @@
       <c r="M499" s="9"/>
       <c r="N499" s="9"/>
     </row>
-    <row r="500" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B500" s="16"/>
       <c r="C500" s="9"/>
       <c r="D500" s="9"/>
@@ -13724,7 +13744,7 @@
       <c r="M500" s="9"/>
       <c r="N500" s="9"/>
     </row>
-    <row r="501" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
       <c r="D501" s="9"/>
@@ -13739,7 +13759,7 @@
       <c r="M501" s="9"/>
       <c r="N501" s="9"/>
     </row>
-    <row r="502" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
       <c r="D502" s="9"/>
@@ -13754,7 +13774,7 @@
       <c r="M502" s="9"/>
       <c r="N502" s="9"/>
     </row>
-    <row r="503" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
       <c r="D503" s="9"/>
@@ -13769,7 +13789,7 @@
       <c r="M503" s="9"/>
       <c r="N503" s="9"/>
     </row>
-    <row r="504" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
       <c r="D504" s="9"/>
@@ -13784,7 +13804,7 @@
       <c r="M504" s="9"/>
       <c r="N504" s="9"/>
     </row>
-    <row r="505" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
       <c r="D505" s="9"/>
@@ -13799,7 +13819,7 @@
       <c r="M505" s="9"/>
       <c r="N505" s="9"/>
     </row>
-    <row r="506" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
       <c r="D506" s="9"/>
@@ -13814,7 +13834,7 @@
       <c r="M506" s="9"/>
       <c r="N506" s="9"/>
     </row>
-    <row r="507" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
       <c r="D507" s="9"/>
@@ -13829,7 +13849,7 @@
       <c r="M507" s="9"/>
       <c r="N507" s="9"/>
     </row>
-    <row r="508" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
       <c r="D508" s="9"/>
@@ -13844,7 +13864,7 @@
       <c r="M508" s="9"/>
       <c r="N508" s="9"/>
     </row>
-    <row r="509" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
       <c r="D509" s="9"/>
@@ -13859,7 +13879,7 @@
       <c r="M509" s="9"/>
       <c r="N509" s="9"/>
     </row>
-    <row r="510" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
       <c r="D510" s="9"/>
@@ -13874,7 +13894,7 @@
       <c r="M510" s="9"/>
       <c r="N510" s="9"/>
     </row>
-    <row r="511" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
       <c r="D511" s="9"/>
